--- a/biology/Histoire de la zoologie et de la botanique/Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique/Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique/Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_compl%C3%A8te_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
+          <t>Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Flore complète portative de la France, de la Suisse et de la Belgique, appelée plus communément Flore Bonnier, est une flore de terrain rédigée par Gaston Bonnier et Georges de Layens. Elle a été publiée pour la première fois en 1908 sous le titre « Flore complète de la France et de la Suisse » et rééditée depuis à de très nombreuses reprises. Faisant partie des flores classiques[1], elle constitue actuellement l'une des seules flores françaises quasiment exhaustives et d'utilisation pratique par son format. Elle est rééditée depuis 1986 par les éditions Belin.
-Cet ouvrage constitue la première partie d'une collection intitulée « La végétation de la France, Suisse et Belgique » qui devait en comprendre trois. La deuxième partie est « La Flore complète illustrée en couleurs de la France, Suisse en Belgique » publiée de 1912 à 1935 en 13 volumes (La publication a été poursuivie par Robert Douin après la mort de Gaston Bonnier en 1922). La troisième partie, intitulée «  Description botanique des régions naturelles de la France », n'a jamais été publiée[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Flore complète portative de la France, de la Suisse et de la Belgique, appelée plus communément Flore Bonnier, est une flore de terrain rédigée par Gaston Bonnier et Georges de Layens. Elle a été publiée pour la première fois en 1908 sous le titre « Flore complète de la France et de la Suisse » et rééditée depuis à de très nombreuses reprises. Faisant partie des flores classiques, elle constitue actuellement l'une des seules flores françaises quasiment exhaustives et d'utilisation pratique par son format. Elle est rééditée depuis 1986 par les éditions Belin.
+Cet ouvrage constitue la première partie d'une collection intitulée « La végétation de la France, Suisse et Belgique » qui devait en comprendre trois. La deuxième partie est « La Flore complète illustrée en couleurs de la France, Suisse en Belgique » publiée de 1912 à 1935 en 13 volumes (La publication a été poursuivie par Robert Douin après la mort de Gaston Bonnier en 1922). La troisième partie, intitulée «  Description botanique des régions naturelles de la France », n'a jamais été publiée. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_compl%C3%A8te_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
+          <t>Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Flore Bonnier est un ouvrage permettant une détermination des espèces de plantes rencontrées grâce à des clefs de détermination, reposant en grande majorité sur l'anatomie des organes reproducteurs. Elle permet en théorie, par une observation attentive, la détermination de toutes les plantes présentes sur les territoires de la France, de la Suisse et de la Belgique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_compl%C3%A8te_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
+          <t>Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'utilisation de cette flore est limitée par de nombreux aspects :
 De nombreuses espèces qui n'existaient pas dans les régions concernées existent aujourd'hui à l'état subspontané. Elles peuvent être parfois courantes. Ainsi, des plantes invasives, comme la Renouée du Japon, très courante, sont absentes de ce guide.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_compl%C3%A8te_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
+          <t>Flore_complète_portative_de_la_France,_de_la_Suisse_et_de_la_Belgique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Version informatisée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une version informatisée de la Flore de Bonnier a été réalisée dans le cadre d'un projet collaboratif du réseau Tela Botanica et mise en ligne sur le site de cette association sous le nom de Flore électronique Bonnier. Cette application n'est pas une simple reproduction du texte écrit, mais propose les différentes clés dichotomiques qui permettent de déterminer les plantes. Une mise à jour de la nomenclature dépassée de la Flore de Bonnier est prévue sur la base de la Base de données nomenclaturale de la flore de France (BDNFF)[3].
-Une version numérique de cet ouvrage est également disponible sur le site de la Biblioteca Digital del Real Jardín Botánico (CSIC) (bibliothèque numérique du jardin botanique royal de Madrid)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une version informatisée de la Flore de Bonnier a été réalisée dans le cadre d'un projet collaboratif du réseau Tela Botanica et mise en ligne sur le site de cette association sous le nom de Flore électronique Bonnier. Cette application n'est pas une simple reproduction du texte écrit, mais propose les différentes clés dichotomiques qui permettent de déterminer les plantes. Une mise à jour de la nomenclature dépassée de la Flore de Bonnier est prévue sur la base de la Base de données nomenclaturale de la flore de France (BDNFF).
+Une version numérique de cet ouvrage est également disponible sur le site de la Biblioteca Digital del Real Jardín Botánico (CSIC) (bibliothèque numérique du jardin botanique royal de Madrid).
 </t>
         </is>
       </c>
